--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnveeuminga/Projects/modules-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A7BC0-3819-A14D-AB69-6F8040D97DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9057D21-7E8F-5B49-89F4-454779D02FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="677">
   <si>
     <r>
       <rPr>
@@ -6646,13 +6646,22 @@
       </rPr>
       <t>PA</t>
     </r>
+  </si>
+  <si>
+    <t>ADMIN, EPM</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6668,6 +6677,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6705,7 +6721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6731,6 +6747,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6946,10 +6963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6961,5611 +6978,5628 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>23317</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
+      <c r="B1" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>23317</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>23058</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23058</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>23417</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>23210</v>
+        <v>23417</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>23392</v>
+        <v>23210</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>23019</v>
+        <v>23392</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>23095</v>
+        <v>23019</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>23304</v>
+        <v>23095</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>23282</v>
+        <v>23304</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>23297</v>
+        <v>23282</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>23155</v>
+        <v>23297</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>23426</v>
+        <v>23155</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>23137</v>
+        <v>23426</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>23405</v>
+        <v>23137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>23140</v>
+        <v>23405</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>22168</v>
+        <v>23140</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>23116</v>
+        <v>22168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>23004</v>
+        <v>23116</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>23004</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>23199</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>23064</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>22016</v>
+        <v>23064</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>23341</v>
+        <v>22016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>23198</v>
+        <v>23341</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>23014</v>
+        <v>23198</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>23209</v>
+        <v>23014</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>23412</v>
+        <v>23209</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>23079</v>
+        <v>23412</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>23018</v>
+        <v>23079</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>22083</v>
+        <v>23018</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>23414</v>
+        <v>22083</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>23128</v>
+        <v>23414</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>22005</v>
+        <v>23128</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>23279</v>
+        <v>22005</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>22173</v>
+        <v>23279</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>23409</v>
+        <v>22173</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>23152</v>
+        <v>23409</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>23049</v>
+        <v>23152</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>23211</v>
+        <v>23049</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>23150</v>
+        <v>23211</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>23065</v>
+        <v>23150</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>23213</v>
+        <v>23065</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>23118</v>
+        <v>23213</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>23005</v>
+        <v>23118</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>23083</v>
+        <v>23005</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>23352</v>
+        <v>23083</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>23330</v>
+        <v>23352</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>23319</v>
+        <v>23330</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>22324</v>
+        <v>23319</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>23126</v>
+        <v>22324</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>23229</v>
+        <v>23126</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>23395</v>
+        <v>23229</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>23334</v>
+        <v>23395</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>23342</v>
+        <v>23334</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>23350</v>
+        <v>23342</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>23080</v>
+        <v>23350</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>23243</v>
+        <v>23080</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>23300</v>
+        <v>23243</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>23391</v>
+        <v>23300</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>23298</v>
+        <v>23391</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>23051</v>
+        <v>23298</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>23364</v>
+        <v>23051</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>22012</v>
+        <v>23364</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>23001</v>
+        <v>22012</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>23091</v>
+        <v>23001</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>23344</v>
+        <v>23091</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>22002</v>
+        <v>23344</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>23168</v>
+        <v>22002</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>23327</v>
+        <v>23168</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>23339</v>
+        <v>23327</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>23124</v>
+        <v>23339</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>23269</v>
+        <v>23124</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>23410</v>
+        <v>23269</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>23190</v>
+        <v>23410</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>23430</v>
+        <v>23190</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>23094</v>
+        <v>23430</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>23169</v>
+        <v>23094</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>22404</v>
+        <v>23169</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>23233</v>
+        <v>22404</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>23072</v>
+        <v>23233</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>23270</v>
+        <v>23072</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>23086</v>
+        <v>23270</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>23156</v>
+        <v>23086</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>23307</v>
+        <v>23156</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>23053</v>
+        <v>23307</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>23242</v>
+        <v>23053</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>23232</v>
+        <v>23242</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>22053</v>
+        <v>23232</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>23381</v>
+        <v>22053</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>23291</v>
+        <v>23381</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>23271</v>
+        <v>23291</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>23188</v>
+        <v>23271</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>23338</v>
+        <v>23188</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>23313</v>
+        <v>23338</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>23176</v>
+        <v>23313</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>23099</v>
+        <v>23176</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>23336</v>
+        <v>23099</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>23189</v>
+        <v>23336</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>23153</v>
+        <v>23189</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>23252</v>
+        <v>23153</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>23100</v>
+        <v>23252</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>22201</v>
+        <v>23100</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>23320</v>
+        <v>22201</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>23420</v>
+        <v>23320</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>23332</v>
+        <v>23420</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>23401</v>
+        <v>23332</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2">
-        <v>21061</v>
+        <v>23401</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2">
-        <v>23422</v>
+        <v>21061</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2">
-        <v>23303</v>
+        <v>23422</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2">
-        <v>23333</v>
+        <v>23303</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2">
-        <v>23117</v>
+        <v>23333</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2">
-        <v>23331</v>
+        <v>23117</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2">
-        <v>23429</v>
+        <v>23331</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2">
-        <v>23164</v>
+        <v>23429</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2">
-        <v>23035</v>
+        <v>23164</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2">
-        <v>23268</v>
+        <v>23035</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2">
-        <v>23380</v>
+        <v>23268</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2">
-        <v>23206</v>
+        <v>23380</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2">
-        <v>23234</v>
+        <v>23206</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2">
-        <v>23021</v>
+        <v>23234</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2">
-        <v>23078</v>
+        <v>23021</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2">
-        <v>23295</v>
+        <v>23078</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2">
-        <v>23050</v>
+        <v>23295</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2">
-        <v>23148</v>
+        <v>23050</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2">
-        <v>23413</v>
+        <v>23148</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2">
-        <v>23045</v>
+        <v>23413</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2">
-        <v>22122</v>
+        <v>23045</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2">
-        <v>22259</v>
+        <v>22122</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2">
-        <v>23225</v>
+        <v>22259</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2">
-        <v>23015</v>
+        <v>23225</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2">
-        <v>23251</v>
+        <v>23015</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2">
-        <v>22092</v>
+        <v>23251</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2">
-        <v>23216</v>
+        <v>22092</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2">
-        <v>22255</v>
+        <v>23216</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2">
-        <v>23146</v>
+        <v>22255</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2">
-        <v>23239</v>
+        <v>23146</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2">
-        <v>23181</v>
+        <v>23239</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2">
-        <v>23388</v>
+        <v>23181</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2">
-        <v>23013</v>
+        <v>23388</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2">
-        <v>23396</v>
+        <v>23013</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2">
-        <v>23067</v>
+        <v>23396</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2">
-        <v>23059</v>
+        <v>23067</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2">
-        <v>23299</v>
+        <v>23059</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2">
-        <v>23287</v>
+        <v>23299</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2">
-        <v>23346</v>
+        <v>23287</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2">
-        <v>23036</v>
+        <v>23346</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2">
-        <v>22081</v>
+        <v>23036</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2">
-        <v>23272</v>
+        <v>22081</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2">
-        <v>23203</v>
+        <v>23272</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2">
-        <v>23323</v>
+        <v>23203</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2">
-        <v>23230</v>
+        <v>23323</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2">
-        <v>21251</v>
+        <v>23230</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2">
-        <v>23016</v>
+        <v>21251</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2">
-        <v>22035</v>
+        <v>23016</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2">
-        <v>23120</v>
+        <v>22035</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2">
-        <v>22116</v>
+        <v>23120</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2">
-        <v>22078</v>
+        <v>22116</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2">
-        <v>23347</v>
+        <v>22078</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2">
-        <v>23403</v>
+        <v>23347</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2">
-        <v>23370</v>
+        <v>23403</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2">
-        <v>23037</v>
+        <v>23370</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2">
-        <v>22011</v>
+        <v>23037</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2">
-        <v>23355</v>
+        <v>22011</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2">
-        <v>23227</v>
+        <v>23355</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2">
-        <v>23274</v>
+        <v>23227</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2">
-        <v>23177</v>
+        <v>23274</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2">
-        <v>23114</v>
+        <v>23177</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2">
-        <v>22065</v>
+        <v>23114</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2">
-        <v>23060</v>
+        <v>22065</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2">
-        <v>22319</v>
+        <v>23060</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2">
-        <v>23254</v>
+        <v>22319</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2">
-        <v>23040</v>
+        <v>23254</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2">
-        <v>23256</v>
+        <v>23040</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2">
-        <v>23061</v>
+        <v>23256</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2">
-        <v>23154</v>
+        <v>23061</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="2">
-        <v>23010</v>
+        <v>23154</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2">
-        <v>23159</v>
+        <v>23010</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2">
-        <v>23231</v>
+        <v>23159</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2">
-        <v>23026</v>
+        <v>23231</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2">
-        <v>23032</v>
+        <v>23026</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2">
-        <v>23415</v>
+        <v>23032</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2">
-        <v>23165</v>
+        <v>23415</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2">
-        <v>22045</v>
+        <v>23165</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2">
-        <v>23285</v>
+        <v>22045</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2">
-        <v>23250</v>
+        <v>23285</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2">
-        <v>23214</v>
+        <v>23250</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="2">
-        <v>23044</v>
+        <v>23214</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2">
-        <v>23167</v>
+        <v>23044</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="2">
-        <v>23186</v>
+        <v>23167</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="2">
-        <v>23104</v>
+        <v>23186</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2">
-        <v>23237</v>
+        <v>23104</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2">
-        <v>23215</v>
+        <v>23237</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2">
-        <v>23012</v>
+        <v>23215</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2">
-        <v>23178</v>
+        <v>23012</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2">
-        <v>23325</v>
+        <v>23178</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2">
-        <v>23248</v>
+        <v>23325</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2">
-        <v>23293</v>
+        <v>23248</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2">
-        <v>23428</v>
+        <v>23293</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="2">
-        <v>23324</v>
+        <v>23428</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2">
-        <v>23123</v>
+        <v>23324</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="2">
-        <v>23081</v>
+        <v>23123</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="2">
-        <v>23378</v>
+        <v>23081</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="2">
-        <v>23195</v>
+        <v>23378</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="2">
-        <v>23238</v>
+        <v>23195</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="2">
-        <v>23047</v>
+        <v>23238</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="2">
-        <v>23404</v>
+        <v>23047</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="2">
-        <v>22164</v>
+        <v>23404</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="2">
-        <v>23245</v>
+        <v>22164</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="2">
-        <v>22297</v>
+        <v>23245</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="2">
-        <v>23139</v>
+        <v>22297</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="2">
-        <v>23360</v>
+        <v>23139</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="2">
-        <v>23129</v>
+        <v>23360</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="2">
-        <v>22254</v>
+        <v>23129</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="2">
-        <v>23326</v>
+        <v>22254</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="2">
-        <v>23322</v>
+        <v>23326</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="2">
-        <v>23151</v>
+        <v>23322</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2">
-        <v>23202</v>
+        <v>23151</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2">
-        <v>22174</v>
+        <v>23202</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="2">
-        <v>23039</v>
+        <v>22174</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2">
-        <v>23075</v>
+        <v>23039</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="2">
-        <v>23025</v>
+        <v>23075</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="2">
-        <v>23373</v>
+        <v>23025</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2">
-        <v>22378</v>
+        <v>23373</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="2">
-        <v>23305</v>
+        <v>22378</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="2">
-        <v>23090</v>
+        <v>23305</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="2">
-        <v>23171</v>
+        <v>23090</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="2">
-        <v>23289</v>
+        <v>23171</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="2">
-        <v>23359</v>
+        <v>23289</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="2">
-        <v>23286</v>
+        <v>23359</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="2">
-        <v>23131</v>
+        <v>23286</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="2">
-        <v>22423</v>
+        <v>23131</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="2">
-        <v>22137</v>
+        <v>22423</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="2">
-        <v>23180</v>
+        <v>22137</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="2">
-        <v>23264</v>
+        <v>23180</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="2">
-        <v>22322</v>
+        <v>23264</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="2">
-        <v>23301</v>
+        <v>22322</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="2">
-        <v>23031</v>
+        <v>23301</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="2">
-        <v>23311</v>
+        <v>23031</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="2">
-        <v>23266</v>
+        <v>23311</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="2">
-        <v>23046</v>
+        <v>23266</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="2">
-        <v>23023</v>
+        <v>23046</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="2">
-        <v>23418</v>
+        <v>23023</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="2">
-        <v>23024</v>
+        <v>23418</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="2">
-        <v>23261</v>
+        <v>23024</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="2">
-        <v>23033</v>
+        <v>23261</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="2">
-        <v>23383</v>
+        <v>23033</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="2">
-        <v>21153</v>
+        <v>23383</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="2">
-        <v>23236</v>
+        <v>21153</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="2">
-        <v>22332</v>
+        <v>23236</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="2">
-        <v>23223</v>
+        <v>22332</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="2">
-        <v>23063</v>
+        <v>23223</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="2">
-        <v>23062</v>
+        <v>23063</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="2">
-        <v>23107</v>
+        <v>23062</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="2">
-        <v>23224</v>
+        <v>23107</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="2">
-        <v>20210</v>
+        <v>23224</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="2">
-        <v>23113</v>
+        <v>20210</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="2">
-        <v>23160</v>
+        <v>23113</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="2">
-        <v>22233</v>
+        <v>23160</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258" s="2">
-        <v>23052</v>
+        <v>22233</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="2">
-        <v>23119</v>
+        <v>23052</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" s="2">
-        <v>23284</v>
+        <v>23119</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" s="2">
-        <v>23221</v>
+        <v>23284</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262" s="2">
-        <v>23166</v>
+        <v>23221</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263" s="2">
-        <v>23394</v>
+        <v>23166</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264" s="2">
-        <v>23382</v>
+        <v>23394</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265" s="2">
-        <v>23425</v>
+        <v>23382</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266" s="2">
-        <v>23030</v>
+        <v>23425</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267" s="2">
-        <v>23085</v>
+        <v>23030</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268" s="2">
-        <v>23207</v>
+        <v>23085</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269" s="2">
-        <v>23149</v>
+        <v>23207</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270" s="2">
-        <v>23385</v>
+        <v>23149</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271" s="2">
-        <v>23351</v>
+        <v>23385</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B272" s="2">
-        <v>23011</v>
+        <v>23351</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B273" s="2">
-        <v>23135</v>
+        <v>23011</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274" s="2">
-        <v>23204</v>
+        <v>23135</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275" s="2">
-        <v>23228</v>
+        <v>23204</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276" s="2">
-        <v>23029</v>
+        <v>23228</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277" s="2">
-        <v>22176</v>
+        <v>23029</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278" s="2">
-        <v>23337</v>
+        <v>22176</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279" s="2">
-        <v>23068</v>
+        <v>23337</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280" s="2">
-        <v>23084</v>
+        <v>23068</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281" s="2">
-        <v>23354</v>
+        <v>23084</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282" s="2">
-        <v>23379</v>
+        <v>23354</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283" s="2">
-        <v>23017</v>
+        <v>23379</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" s="2">
-        <v>23416</v>
+        <v>23017</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285" s="2">
-        <v>23349</v>
+        <v>23416</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286" s="2">
-        <v>23144</v>
+        <v>23349</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287" s="2">
-        <v>23358</v>
+        <v>23144</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288" s="2">
-        <v>23089</v>
+        <v>23358</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289" s="2">
-        <v>23288</v>
+        <v>23089</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290" s="2">
-        <v>23041</v>
+        <v>23288</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291" s="2">
-        <v>23132</v>
+        <v>23041</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292" s="2">
-        <v>23048</v>
+        <v>23132</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293" s="2">
-        <v>23205</v>
+        <v>23048</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294" s="2">
-        <v>23226</v>
+        <v>23205</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295" s="2">
-        <v>23162</v>
+        <v>23226</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296" s="2">
-        <v>23038</v>
+        <v>23162</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297" s="2">
-        <v>23302</v>
+        <v>23038</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298" s="2">
-        <v>23092</v>
+        <v>23302</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299" s="2">
-        <v>23138</v>
+        <v>23092</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300" s="2">
-        <v>23368</v>
+        <v>23138</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301" s="2">
-        <v>22246</v>
+        <v>23368</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302" s="2">
-        <v>23367</v>
+        <v>22246</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303" s="2">
-        <v>23042</v>
+        <v>23367</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304" s="2">
-        <v>23407</v>
+        <v>23042</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305" s="2">
-        <v>23088</v>
+        <v>23407</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306" s="2">
-        <v>23335</v>
+        <v>23088</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307" s="2">
-        <v>23290</v>
+        <v>23335</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="2">
-        <v>23006</v>
+        <v>23290</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309" s="2">
-        <v>23009</v>
+        <v>23006</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310" s="2">
-        <v>23172</v>
+        <v>23009</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311" s="2">
-        <v>23105</v>
+        <v>23172</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312" s="2">
-        <v>23184</v>
+        <v>23105</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313" s="2">
-        <v>23308</v>
+        <v>23184</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314" s="2">
-        <v>22230</v>
+        <v>23308</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315" s="2">
-        <v>23259</v>
+        <v>22230</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316" s="2">
-        <v>23365</v>
+        <v>23259</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317" s="2">
-        <v>23273</v>
+        <v>23365</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318" s="2">
-        <v>23208</v>
+        <v>23273</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B319" s="2">
-        <v>23372</v>
+        <v>23208</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320" s="2">
-        <v>23402</v>
+        <v>23372</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B321" s="2">
-        <v>23411</v>
+        <v>23402</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322" s="2">
-        <v>23097</v>
+        <v>23411</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323" s="2">
-        <v>23055</v>
+        <v>23097</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324" s="2">
-        <v>23406</v>
+        <v>23055</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325" s="2">
-        <v>23073</v>
+        <v>23406</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326" s="2">
-        <v>23007</v>
+        <v>23073</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327" s="2">
-        <v>21215</v>
+        <v>23007</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328" s="2">
-        <v>23278</v>
+        <v>21215</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
+        <v>329</v>
+      </c>
+      <c r="B329" s="2">
+        <v>23278</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
         <v>330</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B330" s="2">
         <v>23157</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="D329" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E329" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="6">
-        <v>331</v>
-      </c>
-      <c r="B330" s="7">
-        <v>17721</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>672</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E330" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="6">
+        <v>331</v>
+      </c>
+      <c r="B331" s="7">
+        <v>17721</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E331" s="4" t="s">
         <v>673</v>
       </c>
     </row>

--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnveeuminga/Projects/modules-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9057D21-7E8F-5B49-89F4-454779D02FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CDBD49-78A4-0B4A-84E3-BAD72697C362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RECINTO, JED CEDRIC BOSITA</t>
     </r>
@@ -45,6 +46,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -55,6 +57,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BOLALIN, JOSEPH ANDREI BAGASBAS</t>
     </r>
@@ -68,6 +71,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -78,6 +82,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PIA, BILLY JAMES ESTOMATA</t>
     </r>
@@ -91,16 +96,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAWINGAN, KIMBERLY KATE ROQUE</t>
     </r>
@@ -114,6 +121,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -124,6 +132,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VINGUA, TITOLESSR NOE</t>
     </r>
@@ -134,6 +143,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -144,6 +154,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ALFONSO, EUGENE DALIWAG</t>
     </r>
@@ -157,6 +168,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -167,6 +179,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CELESTE, NEO ANGELO GALLETES</t>
     </r>
@@ -177,16 +190,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>POLISTICO, JESSEL MAE DUYAN</t>
     </r>
@@ -200,16 +215,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OYANDO, DEAN BUEN</t>
     </r>
@@ -223,16 +240,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PESIMO, JHON CARLO BAYTAN</t>
     </r>
@@ -246,6 +265,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -256,6 +276,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GALUSMO, JOHN CRIS ANDAN</t>
     </r>
@@ -266,6 +287,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -276,6 +298,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CUSTODIO, MICHAEL ANDREI HERNANDEZ</t>
     </r>
@@ -286,6 +309,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -296,6 +320,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ENOFERIO, KYLE EGIPTO</t>
     </r>
@@ -306,6 +331,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -316,6 +342,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABUBACAR, AYESSAH HABLADO</t>
     </r>
@@ -329,6 +356,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -339,6 +367,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ESCOBIA, RICHTER JAMES HINGCO</t>
     </r>
@@ -352,16 +381,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GENTALLAN, RAPHAEL ANDRO CAHOY</t>
     </r>
@@ -372,6 +403,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -382,6 +414,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DATOR, LYLE IAN TANGGAWOHN</t>
     </r>
@@ -392,6 +425,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -402,6 +436,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABRAHAM, ISRAEL JOHN DAGU-OB</t>
     </r>
@@ -412,6 +447,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -422,6 +458,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAGAR, ALJINE LABADOR</t>
     </r>
@@ -435,16 +472,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BUHAIN, CYRAH DIONNE NALDO</t>
     </r>
@@ -455,16 +494,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AGUSTIN, ZETH LAO</t>
     </r>
@@ -478,6 +519,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -488,6 +530,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SIERRA, JASON HINACAY</t>
     </r>
@@ -501,6 +544,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -511,6 +555,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAGANGILANG, WARREN MARCOS</t>
     </r>
@@ -521,6 +566,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -531,6 +577,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AGPULDO, JOSE DUGAY</t>
     </r>
@@ -541,16 +588,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAVAPIE, ELYZA MARIE FONTANILLA</t>
     </r>
@@ -561,6 +610,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -571,6 +621,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PASCUA, ANGELO GABRIEL GARDO</t>
     </r>
@@ -581,16 +632,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CAMBA, KURT LYNOX PAGCALIWANGAN</t>
     </r>
@@ -601,6 +654,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -611,6 +665,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ALBANO, JOHN TROY BAYLON</t>
     </r>
@@ -621,16 +676,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CAMANGYAN, STEPHEN JAN VILLALOBOS</t>
     </r>
@@ -641,6 +698,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -651,6 +709,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SECRETARIO, ALLAN CHRISTIAN EMMANUEL SUNGA</t>
     </r>
@@ -661,6 +720,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -671,6 +731,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DE OCAMPO, MARTHY FABA-AN</t>
     </r>
@@ -681,16 +742,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABIN, APPLE ALPIA MISAL</t>
     </r>
@@ -701,16 +764,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OROC, CAMILO BRIONES</t>
     </r>
@@ -721,6 +786,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -731,6 +797,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GOMEZ, MARIA AGATHA MYE ESPARTERO</t>
     </r>
@@ -741,6 +808,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -751,6 +819,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GOLES, VINCE MICHAEL BELEN</t>
     </r>
@@ -761,6 +830,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -771,6 +841,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GALAP, KIEL BUHUNGAN</t>
     </r>
@@ -781,16 +852,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BAUTISTA, MAECY STEFAN GUNTANG</t>
     </r>
@@ -801,6 +874,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -811,6 +885,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAYAGAN, KESSI IGID</t>
     </r>
@@ -821,16 +896,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GACAYAN, JUANITO GUANZO</t>
     </r>
@@ -841,16 +918,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BUMANGLAG, CHRISIAH MAE EUGENIO</t>
     </r>
@@ -861,6 +940,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -871,6 +951,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LEAL, FITZEL MAE BAYAUA</t>
     </r>
@@ -881,16 +962,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DE GUZMAN, DEXON REV BINALINGBING</t>
     </r>
@@ -901,6 +984,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -911,6 +995,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABREGANA, ALEXANDER JOEL PIQUERO</t>
     </r>
@@ -921,6 +1006,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -931,6 +1017,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CANTOR, REZ MARK CAGAOAN</t>
     </r>
@@ -941,6 +1028,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -951,6 +1039,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SUMANOY, JHON REY ANTICAMARA</t>
     </r>
@@ -964,16 +1053,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SALTARIN, JAN JOSEPH VARGAS</t>
     </r>
@@ -987,16 +1078,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RICO, KARYLLE RICO</t>
     </r>
@@ -1007,6 +1100,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1017,6 +1111,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>REYES, RIGYNTH PEARL ROMBAOA</t>
     </r>
@@ -1027,6 +1122,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1037,6 +1133,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DE MESA, PRECIOUS CATAPANG</t>
     </r>
@@ -1047,16 +1144,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LUMAANG, DAVID CARLOU BABO MANUEL</t>
     </r>
@@ -1067,16 +1166,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>WANGWANG, JEUEL ARIEL DULAY</t>
     </r>
@@ -1087,16 +1188,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SANTOS, YUAN LAURENZ HUGGAY</t>
     </r>
@@ -1107,6 +1210,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1117,6 +1221,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SIOCO, ANDREI KIM ARZAGA</t>
     </r>
@@ -1127,6 +1232,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1137,6 +1243,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SOTELO, DWAYNE PAUL DANTE</t>
     </r>
@@ -1147,16 +1254,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CAMBEL, VANN CLARK CUSTODIO</t>
     </r>
@@ -1167,6 +1276,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1177,6 +1287,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MANALO, MARC CLEMENS DACULA</t>
     </r>
@@ -1187,6 +1298,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1197,6 +1309,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PIOLINO, GABRIEL CABRERA</t>
     </r>
@@ -1207,16 +1320,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VILLARMEA, MARY JUVELLE SISON</t>
     </r>
@@ -1227,6 +1342,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1237,6 +1353,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PIACOS, SHELDON JAE MANGINGA</t>
     </r>
@@ -1247,6 +1364,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1257,6 +1375,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BENDANILLO, ERICSSON TADLE</t>
     </r>
@@ -1267,16 +1386,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TAULI, KARL KILLI</t>
     </r>
@@ -1287,6 +1408,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1297,6 +1419,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AGATEP, KIM KENDRIC URIE OLARTE</t>
     </r>
@@ -1307,6 +1430,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1317,6 +1441,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABELLA, EMILIO ANINAG</t>
     </r>
@@ -1327,16 +1452,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CATANJAL, JEAN CARLO DAVID</t>
     </r>
@@ -1347,6 +1474,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1357,6 +1485,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SOLLER, DEVORAH FAYE RAMONES</t>
     </r>
@@ -1367,16 +1496,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABESAMIS, MIGUEL PONCE SEO</t>
     </r>
@@ -1387,6 +1518,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1397,6 +1529,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GONZAGA, JAMES JOHN DIOSO</t>
     </r>
@@ -1407,16 +1540,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SALEM, CHRISTIAN LOWELL JANAPIN</t>
     </r>
@@ -1427,16 +1562,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SEPOCADO, RICSER BERNALDEZ</t>
     </r>
@@ -1447,16 +1584,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DELA CRUZ, IVAN JEFF DE GUZMAN</t>
     </r>
@@ -1467,6 +1606,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1477,6 +1617,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OCAMPO, SYLVESTRE GOMEZ</t>
     </r>
@@ -1487,6 +1628,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1497,6 +1639,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MACARAYA, FAIZ SALIH</t>
     </r>
@@ -1507,16 +1650,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JOSE, SAMANTHA LORRAINE SANTOS</t>
     </r>
@@ -1527,16 +1672,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ZABALA, MARC VAN ANGEL PALAD</t>
     </r>
@@ -1547,16 +1694,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CAYTON, ZHEN ZHEN SOBOSOBO</t>
     </r>
@@ -1567,6 +1716,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1577,6 +1727,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GUBIA-ON, ELVIN ARNOLD</t>
     </r>
@@ -1587,16 +1738,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BARNACHEA, ELEAZAR FERRER</t>
     </r>
@@ -1607,16 +1760,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MADRID, RAINA ANDREA BALIN</t>
     </r>
@@ -1627,16 +1782,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CABULISAN, JODEMAR MONTILLA</t>
     </r>
@@ -1647,16 +1804,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ODAL, GLYDEL-ANN JAVELLANA</t>
     </r>
@@ -1667,16 +1826,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CARIDO, EMMANUEL FERNANDEZ</t>
     </r>
@@ -1687,16 +1848,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GAMAYO, JOSEPH GABRIEL RENEIDO</t>
     </r>
@@ -1707,6 +1870,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1717,6 +1881,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>QUIAS, JOSEPHINE JOY BORJE</t>
     </r>
@@ -1727,6 +1892,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -1737,6 +1903,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BENOSA, PUBLEO ROLAND GRIMALDO</t>
     </r>
@@ -1747,16 +1914,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MANALO, JOHN LEOVER ORDOÑA</t>
     </r>
@@ -1767,16 +1936,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MACARIO, ROJAN JAMIH</t>
     </r>
@@ -1787,16 +1958,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BENDO, DARRIS ALLEN DIMAPILIS</t>
     </r>
@@ -1807,6 +1980,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1817,6 +1991,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VALDEZ, ROSE ANN SEMBRANA</t>
     </r>
@@ -1827,16 +2002,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PATIOGO, JORDAN LACWASAN</t>
     </r>
@@ -1847,16 +2024,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OGGANG, JOHN ROZZ LANGKIT</t>
     </r>
@@ -1867,6 +2046,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1877,6 +2057,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JECIEL, RICARDO TADURAN</t>
     </r>
@@ -1887,16 +2068,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SEÑORON, MARK FRANCIS BERCADES</t>
     </r>
@@ -1907,16 +2090,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RAMOS, ARISTON VILLASI</t>
     </r>
@@ -1927,16 +2112,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>HORTELANO, JOHN VAN AIKE DANGIWAN</t>
     </r>
@@ -1947,16 +2134,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>COLOMA, LUIS FERDINAND DUALIN</t>
     </r>
@@ -1967,6 +2156,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -1977,6 +2167,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SAYSON, RENMEL JEON VENTURA</t>
     </r>
@@ -1987,16 +2178,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JOMENTO, MABELLE ORGULA</t>
     </r>
@@ -2007,16 +2200,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GALLARDEZ, DANE MIKA JALATA</t>
     </r>
@@ -2027,6 +2222,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2037,6 +2233,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MAYAMES, VINCENT TOTANES</t>
     </r>
@@ -2047,6 +2244,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2057,6 +2255,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CORDOVA, HENRY CARCOSIA</t>
     </r>
@@ -2067,16 +2266,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JUMAWAN, KIM JOHN HOMER ACASO</t>
     </r>
@@ -2087,16 +2288,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RICONALLA, CALEB CABATINGAN</t>
     </r>
@@ -2107,16 +2310,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAJARA, GARRY VENN VERANO</t>
     </r>
@@ -2127,6 +2332,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2137,6 +2343,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SANTOS, MATTHEW MACARAEG</t>
     </r>
@@ -2147,6 +2354,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2157,6 +2365,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CANLAS, JUAN PAULO URIEL MANALANSAN</t>
     </r>
@@ -2167,6 +2376,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2180,6 +2390,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RAMA, JUAN MIGUEL EDAÑO</t>
     </r>
@@ -2190,6 +2401,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2200,6 +2412,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>POLICARPIO, TREB PATENIA</t>
     </r>
@@ -2210,6 +2423,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2220,6 +2434,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SANTOS, XAMUELLE SADIUA</t>
     </r>
@@ -2230,16 +2445,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DEFUNTORUM, KENT CHAN</t>
     </r>
@@ -2250,6 +2467,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2260,6 +2478,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SANTOS, MAR STEVEN MARAMBA</t>
     </r>
@@ -2270,6 +2489,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2280,6 +2500,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VESTAL, RALPH JOVEN ESAGA</t>
     </r>
@@ -2290,6 +2511,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2300,6 +2522,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GLORIANI, JAYVEEH MARK DALIDA</t>
     </r>
@@ -2310,6 +2533,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2320,6 +2544,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BAHINGAWAN, ARLA KRISH KINAHINGAN</t>
     </r>
@@ -2330,6 +2555,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2340,6 +2566,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OBLIANDA, JEANNY OPLIMO</t>
     </r>
@@ -2350,16 +2577,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>UNDANG, KHERVIE PULBOS</t>
     </r>
@@ -2370,6 +2599,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2380,6 +2610,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAOYAN, GLEN KIMBONGAN</t>
     </r>
@@ -2390,6 +2621,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2400,6 +2632,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MAESTRADO, JOHN VICTOR CASTROVERDE</t>
     </r>
@@ -2410,16 +2643,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ALMARIO, LARA MENDOZA</t>
     </r>
@@ -2430,6 +2665,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2440,6 +2676,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CALUGTONG, JAN AIRON CARRASCO</t>
     </r>
@@ -2450,6 +2687,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2460,6 +2698,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PEREZ, KREIG LEEON DOWD COMPETENTE</t>
     </r>
@@ -2470,6 +2709,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2480,6 +2720,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BAWALAN, RON GODFREY WAGGAWAG</t>
     </r>
@@ -2490,16 +2731,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>FLORES, MICHAEL VINCE NIÑO PELAGIO</t>
     </r>
@@ -2510,6 +2753,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2520,6 +2764,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SALONGA, GABRIEL LORENZO DECLARO</t>
     </r>
@@ -2530,16 +2775,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BARRO, FROILAND MUÑOZ</t>
     </r>
@@ -2550,6 +2797,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2560,6 +2808,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DELIM, JERIC PATRICK LIMOSO</t>
     </r>
@@ -2570,6 +2819,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2580,6 +2830,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>NATO, DIANNE FAE ARIOLA</t>
     </r>
@@ -2590,6 +2841,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2600,6 +2852,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LOPEZ, MARC BERNARD UDANG</t>
     </r>
@@ -2610,6 +2863,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2620,6 +2874,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AHAMIL, JOSHUA MELITON QUIAMBAO</t>
     </r>
@@ -2630,6 +2885,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2640,6 +2896,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MATEO, SETH RUSELL SAN JUAN</t>
     </r>
@@ -2650,6 +2907,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2660,6 +2918,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CARREON, LEAN NASSER QUILES</t>
     </r>
@@ -2670,6 +2929,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2680,6 +2940,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LIBOSADA, JAYSON LLOYD ESPANA</t>
     </r>
@@ -2690,16 +2951,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MORENO, MARK JERICHO TADEO</t>
     </r>
@@ -2710,6 +2973,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2720,6 +2984,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>FLOJO, RYAN KEVIN JULIANO</t>
     </r>
@@ -2730,6 +2995,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2740,6 +3006,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MAGNO, PRINCE EDGAR SORIANO</t>
     </r>
@@ -2750,6 +3017,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2760,6 +3028,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>IMPANG, ELINOR GRACE GAGARIN</t>
     </r>
@@ -2770,16 +3039,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VILLAGRACIA, SHARMAIENE BARLUADO</t>
     </r>
@@ -2790,16 +3061,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AGLIAM, ANNABELLE LAGUNDI</t>
     </r>
@@ -2810,6 +3083,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2820,6 +3094,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>WATANGEN, ROCKY BATACLAO</t>
     </r>
@@ -2830,16 +3105,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BUSTILLO, JOHN NICHOLAS CAOILI</t>
     </r>
@@ -2850,6 +3127,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -2860,6 +3138,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BONGALOS, PAUL MATURAN</t>
     </r>
@@ -2870,6 +3149,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2880,6 +3160,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PILUDEN, KHENZON PACYAYA</t>
     </r>
@@ -2890,16 +3171,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PALE, DONIS DARVIN BUNGIHAN</t>
     </r>
@@ -2910,16 +3193,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SORIANO, ARVIN SAAVEDRA</t>
     </r>
@@ -2930,6 +3215,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2940,6 +3226,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BALANDANG, ULYSSES JOHN FACUN</t>
     </r>
@@ -2950,6 +3237,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2960,6 +3248,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CALENDACION, CHRISTIAN JAY SILVA</t>
     </r>
@@ -2970,6 +3259,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -2980,6 +3270,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OLARVE, JHOBERT MAR BIROS</t>
     </r>
@@ -2990,16 +3281,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAMIGO, NICOLE CUNANAN</t>
     </r>
@@ -3010,6 +3303,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3020,6 +3314,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ROMEROSA, RHYLL LEGASPI</t>
     </r>
@@ -3030,16 +3325,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LUMAUIG, MARBOY CALANHI</t>
     </r>
@@ -3050,6 +3347,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3060,6 +3358,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>REYES, CHRISTIAN DEL ESPIRITU SAN</t>
     </r>
@@ -3070,6 +3369,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3080,6 +3380,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AHMAD, DENRAZIER DEL GULAM</t>
     </r>
@@ -3090,16 +3391,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AYNERA, NICOLE LABRADA</t>
     </r>
@@ -3110,6 +3413,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3120,6 +3424,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DE JESUS, JAYBRIEL GABATIN</t>
     </r>
@@ -3130,16 +3435,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DE LEON, CHARLEMAGNE GAQUI</t>
     </r>
@@ -3150,6 +3457,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3160,6 +3468,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CAJELES, MILLER JOHN PALACIO</t>
     </r>
@@ -3170,16 +3479,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SORIANO, AYLE KRYLE MARCELO</t>
     </r>
@@ -3190,16 +3501,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>REYES, JAKE ROED DIAMOS</t>
     </r>
@@ -3210,6 +3523,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3220,6 +3534,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TUBALADO, JEFE FRANCIS LUMAYNO</t>
     </r>
@@ -3230,16 +3545,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BALO, ANNA PAMELA DESCALZO</t>
     </r>
@@ -3250,6 +3567,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3260,6 +3578,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AGANA, RANDELL AMOSCO</t>
     </r>
@@ -3270,16 +3589,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SUÑAZ, GENE KENNETH VALLEJO</t>
     </r>
@@ -3290,16 +3611,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LOPINAC, ALLIYAH MAE FRESAS</t>
     </r>
@@ -3310,6 +3633,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3320,6 +3644,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OMANDAM, GLEN CRISTY ZOSA</t>
     </r>
@@ -3330,6 +3655,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3340,6 +3666,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>HUET, FRANCIS RAFAEL JANER</t>
     </r>
@@ -3350,16 +3677,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DA-O, SYLAS DUSALEN</t>
     </r>
@@ -3370,6 +3699,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3380,6 +3710,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BONGOLAN, ANTONIO RAYMUNDO ALVIAR</t>
     </r>
@@ -3390,16 +3721,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BOOC, DAREN -</t>
     </r>
@@ -3410,16 +3743,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>REFORBA, DUKE VINCENT RAFANAN</t>
     </r>
@@ -3430,6 +3765,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3440,6 +3776,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MERCA, JERSON SUAREZ</t>
     </r>
@@ -3450,6 +3787,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3460,6 +3798,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BANAC, SAMUEL SAMIA</t>
     </r>
@@ -3470,6 +3809,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3480,6 +3820,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MESAJON, JOHN ISRAEL MELLENDREZ</t>
     </r>
@@ -3490,6 +3831,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3500,6 +3842,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BOQUIDA, KARL ANGELOU ABUAN</t>
     </r>
@@ -3510,16 +3853,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GALLAZA, LIEZL ANN JASPE</t>
     </r>
@@ -3530,16 +3875,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ADACI, ALANIS SOLOMON</t>
     </r>
@@ -3550,6 +3897,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3560,6 +3908,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GARCIA, ERLDRICH OCIRE SUCDA</t>
     </r>
@@ -3570,6 +3919,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3580,6 +3930,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LUMILIS, NITZHE JOY BAGONA</t>
     </r>
@@ -3590,16 +3941,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AOYANG, THOMAS ISAAC LACABA</t>
     </r>
@@ -3610,16 +3963,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AYOMANA, CARLOS ROSEL</t>
     </r>
@@ -3630,6 +3985,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3640,6 +3996,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ARROGANTE, MARK JEFREY CANO</t>
     </r>
@@ -3650,16 +4007,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GO, BIAN LESTER JAYME</t>
     </r>
@@ -3670,16 +4029,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BANUA, CHARILYN CENTINO</t>
     </r>
@@ -3690,6 +4051,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3700,6 +4062,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PADONG, JEXIE TIMMECPAO</t>
     </r>
@@ -3710,16 +4073,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MARTINEZ, MARIA JUSTINE PANOL</t>
     </r>
@@ -3730,6 +4095,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3740,6 +4106,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LEBUMFACIL, MISHY RALYNE BELICARIO</t>
     </r>
@@ -3750,6 +4117,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3760,6 +4128,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BARIS, ALVIN GLENN PASCUA</t>
     </r>
@@ -3770,16 +4139,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GONATO, CARL ADRIAN NAGA</t>
     </r>
@@ -3790,6 +4161,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3800,6 +4172,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JARINA, ALYSSA AGNES SANCHEZ</t>
     </r>
@@ -3810,16 +4183,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CUBILLAS, JESLAN GALE TY</t>
     </r>
@@ -3830,16 +4205,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MAGISTRADO, SHEILA MAE VILLAREAL</t>
     </r>
@@ -3850,6 +4227,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -3860,6 +4238,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LEONOR, WARREN DE GUZMAN</t>
     </r>
@@ -3870,6 +4249,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3880,6 +4260,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ADORADOR, ROBERT JAY MEJIA</t>
     </r>
@@ -3890,6 +4271,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3900,6 +4282,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ICARO, VINCE LOWELL LLANES</t>
     </r>
@@ -3910,6 +4293,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3920,6 +4304,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SABIDO, GUILLER SARDOMA</t>
     </r>
@@ -3930,16 +4315,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MARQUEZ, HEJEN GREGORIO</t>
     </r>
@@ -3950,6 +4337,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -3960,6 +4348,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PEDRO, KIT JOSHUA MACAN</t>
     </r>
@@ -3970,16 +4359,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GONZALES, KAVIN EBONIA</t>
     </r>
@@ -3990,16 +4381,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SABES, MIKE IVAN PALENCIA</t>
     </r>
@@ -4010,16 +4403,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DE LA CRUZ, KEENO BRIAN ORDOÑEZ</t>
     </r>
@@ -4030,16 +4425,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CAMBONGGA, ZIMRI MICO QUINONES</t>
     </r>
@@ -4050,16 +4447,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>UDAY, ALVIN BALAQUI</t>
     </r>
@@ -4070,6 +4469,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4080,6 +4480,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LABIANO, JOANA MARIE AGUPE</t>
     </r>
@@ -4090,16 +4491,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MAGLASANG, VINCENT JOSHUA OGAY</t>
     </r>
@@ -4110,6 +4513,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4120,6 +4524,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BATAY-AN, LANZ ELIEZER CARDINEZ</t>
     </r>
@@ -4130,6 +4535,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4140,6 +4546,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TIMBANGAN, EDWIN SANTIAGO</t>
     </r>
@@ -4150,16 +4557,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GARCIA, JOHN CRISTOPHER ANTONIO</t>
     </r>
@@ -4170,16 +4579,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MANCERA, JENNICA YRA CAGAS</t>
     </r>
@@ -4190,16 +4601,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PICAR, KERLT ANDREU LORIN</t>
     </r>
@@ -4210,16 +4623,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ESCAÑO, CHRISTIAN ERWIN FURAQUE</t>
     </r>
@@ -4230,16 +4645,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TANCIO, ANGELA JAYNE PALMARES</t>
     </r>
@@ -4250,16 +4667,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DIOKNO, LEO HARLEY PADAYAO</t>
     </r>
@@ -4270,6 +4689,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4280,6 +4700,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MORA, RHYKIRK WHYANE TADURAN</t>
     </r>
@@ -4290,6 +4711,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4300,6 +4722,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SADURAL, LEAN ARSEN NAVARRO</t>
     </r>
@@ -4310,6 +4733,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4320,6 +4744,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ROLDAN, HANS BERNARD RARO</t>
     </r>
@@ -4330,16 +4755,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GALAN, JOSE MANUEL FABIAÑA</t>
     </r>
@@ -4350,16 +4777,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAGUITAO, JOHN PAUL ZIPAGAN</t>
     </r>
@@ -4370,6 +4799,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4380,6 +4810,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GONGONA, JOSE EDUARDO VIVENCIO LUMBERA</t>
     </r>
@@ -4390,16 +4821,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BAMOONG, GERVYL PASCUAL</t>
     </r>
@@ -4410,6 +4843,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4420,6 +4854,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CALIP, ALBERT FOSTER</t>
     </r>
@@ -4430,16 +4865,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AOWES, AYSON GLENN ASWIT</t>
     </r>
@@ -4450,6 +4887,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4460,6 +4898,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TUNGCUL, REYMARC PAUIG</t>
     </r>
@@ -4470,16 +4909,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VALENCIA, CARLO ANDREI DULOS</t>
     </r>
@@ -4490,6 +4931,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4500,6 +4942,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PORLAS, JOHN FER PROVIDO</t>
     </r>
@@ -4510,16 +4953,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CASTOR, DENIEL LOUIE CASTOR</t>
     </r>
@@ -4530,6 +4975,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4540,6 +4986,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GUILLERMO, DESEMOORE QUITAYEN</t>
     </r>
@@ -4550,16 +4997,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAMPLONA, JAMES MARERO</t>
     </r>
@@ -4570,6 +5019,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4580,6 +5030,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TAN, MA. ANGELICA NICOLE PEDROSA</t>
     </r>
@@ -4590,16 +5041,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAE, MARK TIMOTHY ALCARDE</t>
     </r>
@@ -4610,16 +5063,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DOLIENTE, KEVIN CHRISTIAN TEODORO</t>
     </r>
@@ -4630,6 +5085,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4640,6 +5096,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VILLAVICENCIO, JOHN ALLEN MANDOCDOC</t>
     </r>
@@ -4650,16 +5107,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DURAN, CHARLENE JOYCE COMPLETO</t>
     </r>
@@ -4670,6 +5129,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4680,6 +5140,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ILAGAN, JANE MORAL</t>
     </r>
@@ -4690,16 +5151,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>NAZARENO, JOSELL GERONE ALINDADA</t>
     </r>
@@ -4710,6 +5173,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4720,6 +5184,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>REYES, DIONESIO JESS SABLAN</t>
     </r>
@@ -4730,16 +5195,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PITOGO, RENAN JOSHUA LEVISTE</t>
     </r>
@@ -4750,16 +5217,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AWAKAN, JHONIRICK LAOYAN</t>
     </r>
@@ -4770,6 +5239,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4780,6 +5250,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RABANES, JOSH RAVEN ACE MILAN</t>
     </r>
@@ -4790,6 +5261,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -4800,6 +5272,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>NOVISTEROS, DEBBIE ANDREW NONALIDA</t>
     </r>
@@ -4810,16 +5283,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BATALO, SANGCAD NGENHINA</t>
     </r>
@@ -4830,16 +5305,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ALUDOS, MICAH BALANG</t>
     </r>
@@ -4850,6 +5327,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4860,6 +5338,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GARTALLA, DENNIS DAPUN</t>
     </r>
@@ -4870,16 +5349,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ANDAYA, CARL BRYAN BARREZA</t>
     </r>
@@ -4890,16 +5371,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>NAVA, LUBERT DERMIEL LAPIZAR</t>
     </r>
@@ -4910,16 +5393,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BACCAY, PETER MARK BOSI</t>
     </r>
@@ -4930,6 +5415,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -4940,6 +5426,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VALEROSO, RON GLENN CORACERO</t>
     </r>
@@ -4950,16 +5437,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>KAINDOY, ASTRID JAY DELGADO</t>
     </r>
@@ -4970,16 +5459,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MAGHILUM, ROBERT GULPAN</t>
     </r>
@@ -4990,16 +5481,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ROSAL, FRANCE MONICO PIE</t>
     </r>
@@ -5010,16 +5503,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LOGRONIO, EDMUNDO DAGTA</t>
     </r>
@@ -5030,16 +5525,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BORROMEO, IRISH ANTOINETTE MELLO</t>
     </r>
@@ -5050,16 +5547,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BOREGAS, MICHAEL PIERRE CUDAL</t>
     </r>
@@ -5070,6 +5569,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5080,6 +5580,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CUETO, JHUNNIE MEL AMPUAN</t>
     </r>
@@ -5090,6 +5591,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5100,6 +5602,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LOPEZ, JOHN LLOYD MELCHOR</t>
     </r>
@@ -5110,16 +5613,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>IMPORTANTE, ROWEN PICO</t>
     </r>
@@ -5130,16 +5635,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DANGUILAN, ANDRELIE JOHN GUITERING</t>
     </r>
@@ -5150,16 +5657,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GARCIA, JUSTIN JAMES RANGCON</t>
     </r>
@@ -5170,6 +5679,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5180,6 +5690,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MAGLAMBAYAN, TRISTAN BALICAS</t>
     </r>
@@ -5190,16 +5701,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BENITEZ, JOHN KYLE GONIA</t>
     </r>
@@ -5210,6 +5723,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5220,6 +5734,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DE GUZMAN, JONATHAN RAMIREZ</t>
     </r>
@@ -5230,6 +5745,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5240,6 +5756,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PABILLAR, DJASPHER SANDREI RUTOR</t>
     </r>
@@ -5250,16 +5767,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LLAMAS, MARY NICOLE TARAN</t>
     </r>
@@ -5270,16 +5789,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GOMUGDA, ARIANE NOVIE AGRAVANTE</t>
     </r>
@@ -5290,6 +5811,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5300,6 +5822,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VITOR, KEITH SEAN GENES</t>
     </r>
@@ -5310,6 +5833,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5320,6 +5844,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VALENCIA, RHAELAN SALAS</t>
     </r>
@@ -5330,16 +5855,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RICAFRANCA, JOHN ACE RABE</t>
     </r>
@@ -5350,16 +5877,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ATENEO, ELMARK OBIAL</t>
     </r>
@@ -5370,16 +5899,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CARANGUIAN, ANGELO ESPIRITU</t>
     </r>
@@ -5390,16 +5921,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAS-ANG, YAAKOVIC BARTOLOME</t>
     </r>
@@ -5410,16 +5943,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>FONTE, JAN LHENARD BOBIS</t>
     </r>
@@ -5430,6 +5965,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5440,6 +5976,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>VERZOSA, MA YSABELLE LICAWEN</t>
     </r>
@@ -5450,6 +5987,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5460,6 +5998,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SUELAN, FERDINAND BILLANES</t>
     </r>
@@ -5470,16 +6009,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ADELANTAR, AARON MATTHEW FRANCISCO</t>
     </r>
@@ -5490,16 +6031,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ECHAVEZ, MARGAUX JOY SEGUI</t>
     </r>
@@ -5510,6 +6053,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5520,6 +6064,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAMPARERO, JULIENNE GLEE HACHERO</t>
     </r>
@@ -5530,16 +6075,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LUBRICA, OWEN JAMES BANISA</t>
     </r>
@@ -5550,6 +6097,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5560,6 +6108,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ARIOLA, DEXTER JOSEPH PALISOC</t>
     </r>
@@ -5570,6 +6119,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5580,6 +6130,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GRAJO, PAUL JEROME VENTURA</t>
     </r>
@@ -5590,6 +6141,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5600,6 +6152,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SEISMUNDO, SIDNEY PAULO CABALLES</t>
     </r>
@@ -5610,6 +6163,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5620,6 +6174,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CABASOG, URIEL SHEM TANDINGAN</t>
     </r>
@@ -5630,16 +6185,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CANTOR, MARY AVEJEAN DIANGCO</t>
     </r>
@@ -5650,16 +6207,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SUMO, JOIST ALEXI ABANICO</t>
     </r>
@@ -5670,6 +6229,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5680,6 +6240,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>UNCIANO, JOHN PAUL GUYA</t>
     </r>
@@ -5690,16 +6251,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ALBANO, ARVYN KYLE CONCEPCION</t>
     </r>
@@ -5710,16 +6273,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DIONGON, ERNESTO VERUASA</t>
     </r>
@@ -5730,6 +6295,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5740,6 +6306,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SORIANO, KRISTOPER JOHN ACUDILI</t>
     </r>
@@ -5750,16 +6317,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>FERNANDEZ, RICO JAY BANGLOS</t>
     </r>
@@ -5770,6 +6339,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5780,6 +6350,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TAN, KENT LLOYD LINOGAO</t>
     </r>
@@ -5790,6 +6361,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5800,6 +6372,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CASIS, AMICA KLEIR RAEMI BAYUDAN</t>
     </r>
@@ -5810,16 +6383,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PALMARES, CHARENZ SARGADO</t>
     </r>
@@ -5830,16 +6405,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BANGAY, PRINCE HEART GUEVARRA</t>
     </r>
@@ -5850,6 +6427,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5860,6 +6438,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DOMINGO, PAOLO ANGELO HINDANG</t>
     </r>
@@ -5870,6 +6449,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5880,6 +6460,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BAUTISTA, PATRICK OBRADOR</t>
     </r>
@@ -5890,16 +6471,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LANDICHO, RANIL BONCATO</t>
     </r>
@@ -5910,16 +6493,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LOPEZ, RAV BRAYNER HERNANDEZ</t>
     </r>
@@ -5930,6 +6515,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -5940,6 +6526,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GEGARE, RUBY ANGLEA SY REGIDOR</t>
     </r>
@@ -5950,6 +6537,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5960,6 +6548,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BALUNSO, JASPER BALICIADO</t>
     </r>
@@ -5970,6 +6559,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -5980,6 +6570,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>POBLETE, NAOMI NISSI CORDERO</t>
     </r>
@@ -5990,6 +6581,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6000,6 +6592,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CATIPAY, MARK ANTHONY GERABON</t>
     </r>
@@ -6010,16 +6603,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ESCAURIASA, JL DIZON</t>
     </r>
@@ -6030,6 +6625,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6040,6 +6636,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TONZO, ERULL MARRON TRILLANA</t>
     </r>
@@ -6050,16 +6647,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MENDAÑA, JEROME ANDAL</t>
     </r>
@@ -6070,6 +6669,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6080,6 +6680,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TIBALDO, ABRAHAM MARC ENRIQUEZ</t>
     </r>
@@ -6090,16 +6691,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BARCELON, QUEEN ELIZABETH TOLEDANO</t>
     </r>
@@ -6110,6 +6713,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6120,6 +6724,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BOGAOAN, EDLYN GRACE PASTOLERO</t>
     </r>
@@ -6130,16 +6735,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CARUDIN, RAJAH EZZA MAJED DADOR</t>
     </r>
@@ -6150,16 +6757,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SARMIENTO, NICOLE BUQUE</t>
     </r>
@@ -6170,16 +6779,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAQUIT, IRONEL ORGADA</t>
     </r>
@@ -6190,16 +6801,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABRENICA, JERICHO BRYAN LORENZANA</t>
     </r>
@@ -6210,6 +6823,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6220,6 +6834,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ACALA, JOHN ANDREW PICARDAL</t>
     </r>
@@ -6230,16 +6845,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>HERMOSO, RIZALDY CATTI</t>
     </r>
@@ -6250,6 +6867,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6260,6 +6878,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CUENO, CHARLENE JOY GABRIEL</t>
     </r>
@@ -6270,6 +6889,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -6280,6 +6900,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>IRLANDEZ, JOHN CARLO MACALINDONG</t>
     </r>
@@ -6290,16 +6911,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>QUIGAO, ROWENN JULIUS DUMALINA</t>
     </r>
@@ -6310,16 +6933,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MACARIO, JAMIH LYNN JAMIH</t>
     </r>
@@ -6330,6 +6955,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -6340,6 +6966,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MORALES, REINZEL GASMEN</t>
     </r>
@@ -6350,16 +6977,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TE-EM, LIAM WILLER PANGKET</t>
     </r>
@@ -6370,16 +6999,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OLA-O, JEZZA TRICIA FAITH PASKING</t>
     </r>
@@ -6390,6 +7021,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -6400,6 +7032,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>LAUREL, TITUS EMMANUEL GERON</t>
     </r>
@@ -6410,6 +7043,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6420,6 +7054,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TUGUINAY, JAMES PUMIHIC</t>
     </r>
@@ -6430,16 +7065,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ODULIO, SIR JOHN DAVID SANTOS</t>
     </r>
@@ -6450,16 +7087,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MALADRIGO, JAY LUMBOY</t>
     </r>
@@ -6470,16 +7109,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CHUA, CASSAY MARIE CO HAT</t>
     </r>
@@ -6490,6 +7131,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PN</t>
     </r>
@@ -6500,6 +7142,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BERGADO, ALYSSA MAE BELTRAN</t>
     </r>
@@ -6510,16 +7153,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BAUZON, JUNIN DENCE FEROLINO</t>
     </r>
@@ -6530,16 +7175,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CAGASAN, FRANCINE NOELLE CASTILLO</t>
     </r>
@@ -6550,6 +7197,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PAF</t>
     </r>
@@ -6560,6 +7208,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ABRINA, CHRISTIAN HERRERA</t>
     </r>
@@ -6570,16 +7219,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ORCULLO, RIEL FERNAN FORTUITO</t>
     </r>
@@ -6590,16 +7241,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ORIBIANA, XYPRUZ JOHN URSAIZ</t>
     </r>
@@ -6610,16 +7263,18 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GAMINDE, ALEX SODELA</t>
     </r>
@@ -6630,6 +7285,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PA</t>
     </r>
@@ -6643,6 +7299,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>PA</t>
     </r>
@@ -6672,11 +7329,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6966,7 +7625,7 @@
   <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
